--- a/afnan/groupWork.xlsx
+++ b/afnan/groupWork.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUNYA\Desktop\afnan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUNYA\Desktop\afnan\afnan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="statics" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="151">
   <si>
     <t>id</t>
   </si>
@@ -477,6 +477,15 @@
   </si>
   <si>
     <t>description  textlong</t>
+  </si>
+  <si>
+    <t>Add to cart</t>
+  </si>
+  <si>
+    <t>Buy it now</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -930,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,10 +1003,21 @@
       <c r="B5" t="s">
         <v>126</v>
       </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/afnan/groupWork.xlsx
+++ b/afnan/groupWork.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUNYA\Desktop\afnan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azermikayilov/Desktop/_cerkezli/afnan/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401AAA81-CA18-2E4E-934C-FEB093E9D631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18980" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statics" sheetId="8" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -477,12 +478,15 @@
   </si>
   <si>
     <t>description  textlong</t>
+  </si>
+  <si>
+    <t>category_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -929,21 +933,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -954,7 +958,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -965,7 +969,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -976,7 +980,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -987,7 +991,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -995,7 +999,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>127</v>
       </c>
@@ -1006,31 +1010,31 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -1041,27 +1045,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1139,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1207,7 +1211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1218,7 +1222,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1242,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -1250,54 +1254,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1305,7 +1309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1323,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1327,7 +1331,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1339,7 +1343,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1351,7 +1355,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E35" s="1"/>
       <c r="F35" s="3" t="s">
         <v>89</v>
@@ -1360,7 +1364,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E36" s="1"/>
       <c r="F36" s="3" t="s">
         <v>59</v>
@@ -1369,7 +1373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E37" s="1"/>
       <c r="F37" s="3" t="s">
         <v>61</v>
@@ -1378,7 +1382,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>46</v>
       </c>
@@ -1388,7 +1392,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1402,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1412,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1418,7 +1422,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1429,17 +1433,17 @@
       <c r="F42" s="3"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E43" s="1"/>
       <c r="F43" s="3"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E44" s="1"/>
       <c r="F44" s="3"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>48</v>
       </c>
@@ -1447,7 +1451,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1455,92 +1459,92 @@
       <c r="F46" s="3"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -1551,35 +1555,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -1596,7 +1600,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1630,7 +1634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1655,7 +1659,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1666,7 +1670,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1683,7 +1687,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1691,7 +1695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -1699,57 +1703,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
         <v>95</v>
       </c>
@@ -1761,59 +1765,59 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.21875" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -1824,28 +1828,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="235" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>136</v>
       </c>
@@ -1853,7 +1857,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -1861,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -1869,7 +1873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>90</v>
       </c>
@@ -1877,7 +1881,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>82</v>
       </c>
@@ -1885,18 +1889,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>137</v>
       </c>
@@ -1907,7 +1911,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1918,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1929,7 +1933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1940,7 +1944,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1951,7 +1955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -1962,7 +1966,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -1973,7 +1977,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>143</v>
       </c>
@@ -1981,7 +1985,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1997,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2005,19 +2009,24 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2026,34 +2035,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -2067,7 +2076,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -2081,7 +2090,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -2095,7 +2104,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -2106,7 +2115,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -2117,7 +2126,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" s="12" t="s">
         <v>117</v>
       </c>
@@ -2125,7 +2134,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" s="13" t="s">
         <v>131</v>
       </c>
@@ -2136,12 +2145,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/afnan/groupWork.xlsx
+++ b/afnan/groupWork.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azermikayilov/Desktop/_cerkezli/afnan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401AAA81-CA18-2E4E-934C-FEB093E9D631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD385CD-8E9B-F84C-9903-726C4F196EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18980" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -481,6 +481,42 @@
   </si>
   <si>
     <t>category_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azer3 </t>
+  </si>
+  <si>
+    <t>ProductImage</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>migration</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>route</t>
   </si>
 </sst>
 </file>
@@ -1829,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="235" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="158" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1984,6 +2020,9 @@
       <c r="B23" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="C23" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1992,6 +2031,12 @@
       <c r="B24" t="s">
         <v>146</v>
       </c>
+      <c r="C24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -2000,6 +2045,12 @@
       <c r="B25" t="s">
         <v>0</v>
       </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2008,25 +2059,59 @@
       <c r="B26" t="s">
         <v>138</v>
       </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>47</v>
       </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>147</v>
       </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>10</v>
       </c>
+      <c r="E29" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2050,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/afnan/groupWork.xlsx
+++ b/afnan/groupWork.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="160">
   <si>
     <t>id</t>
   </si>
@@ -486,6 +486,33 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>Love It? Add to My Wishlist</t>
+  </si>
+  <si>
+    <t>wishlist content</t>
+  </si>
+  <si>
+    <t>Continue shopping</t>
+  </si>
+  <si>
+    <t>My Wishlist</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Clear List</t>
+  </si>
+  <si>
+    <t>Add To Cart</t>
+  </si>
+  <si>
+    <t>AED</t>
   </si>
 </sst>
 </file>
@@ -939,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,9 +977,10 @@
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="2" max="2" width="34.109375" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -962,8 +990,11 @@
       <c r="C1" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -973,8 +1004,11 @@
       <c r="C2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -984,8 +1018,11 @@
       <c r="C3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -995,8 +1032,11 @@
       <c r="C4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -1006,18 +1046,37 @@
       <c r="C5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>127</v>
       </c>
       <c r="C6" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>150</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
